--- a/prime 7.xlsx
+++ b/prime 7.xlsx
@@ -141,7 +141,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -328,10 +328,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AR64"/>
+  <dimension ref="A1:BF64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AH17" activeCellId="0" sqref="AH17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BG32" activeCellId="0" sqref="BG32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.109375" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1200,6 +1200,90 @@
       <c r="AD22" s="1" t="n">
         <v>203</v>
       </c>
+      <c r="AE22" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="AF22" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="AG22" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="AH22" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="AI22" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="AJ22" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="AK22" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="AL22" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="AM22" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="AN22" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="AO22" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="AP22" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="AQ22" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="AR22" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="AS22" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="AT22" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="AU22" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="AV22" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="AW22" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="AX22" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="AY22" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="AZ22" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="BA22" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="BB22" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="BC22" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="BD22" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="BE22" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="BF22" s="1" t="n">
+        <v>399</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
@@ -1292,6 +1376,90 @@
       <c r="AD23" s="1" t="n">
         <v>202</v>
       </c>
+      <c r="AE23" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="AF23" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="AG23" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="AH23" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="AI23" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="AJ23" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="AK23" s="2" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL23" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="AM23" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="AN23" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="AO23" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="AP23" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="AQ23" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="AR23" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="AS23" s="2" t="n">
+        <v>307</v>
+      </c>
+      <c r="AT23" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="AU23" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="AV23" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="AW23" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="AX23" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="AY23" s="2" t="n">
+        <v>349</v>
+      </c>
+      <c r="AZ23" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="BA23" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="BB23" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="BC23" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="BD23" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="BE23" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="BF23" s="1" t="n">
+        <v>398</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
@@ -1384,6 +1552,90 @@
       <c r="AD24" s="1" t="n">
         <v>201</v>
       </c>
+      <c r="AE24" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="AF24" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="AG24" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="AH24" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="AI24" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="AJ24" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="AK24" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL24" s="2" t="n">
+        <v>257</v>
+      </c>
+      <c r="AM24" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="AN24" s="2" t="n">
+        <v>271</v>
+      </c>
+      <c r="AO24" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="AP24" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="AQ24" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="AR24" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="AS24" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="AT24" s="2" t="n">
+        <v>313</v>
+      </c>
+      <c r="AU24" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="AV24" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="AW24" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="AX24" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="AY24" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="AZ24" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="BA24" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="BB24" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="BC24" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="BD24" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="BE24" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="BF24" s="2" t="n">
+        <v>397</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
@@ -1476,6 +1728,90 @@
       <c r="AD25" s="1" t="n">
         <v>200</v>
       </c>
+      <c r="AE25" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="AF25" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="AG25" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="AH25" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="AI25" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="AJ25" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="AK25" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="AL25" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="AM25" s="2" t="n">
+        <v>263</v>
+      </c>
+      <c r="AN25" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="AO25" s="2" t="n">
+        <v>277</v>
+      </c>
+      <c r="AP25" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="AQ25" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="AR25" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="AS25" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="AT25" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="AU25" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="AV25" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="AW25" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="AX25" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="AY25" s="2" t="n">
+        <v>347</v>
+      </c>
+      <c r="AZ25" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="BA25" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="BB25" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="BC25" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="BD25" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="BE25" s="2" t="n">
+        <v>389</v>
+      </c>
+      <c r="BF25" s="1" t="n">
+        <v>396</v>
+      </c>
     </row>
     <row r="26" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
@@ -1568,20 +1904,90 @@
       <c r="AD26" s="2" t="n">
         <v>199</v>
       </c>
-      <c r="AE26" s="1"/>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="1"/>
-      <c r="AJ26" s="1"/>
-      <c r="AK26" s="1"/>
-      <c r="AL26" s="1"/>
-      <c r="AM26" s="1"/>
-      <c r="AN26" s="1"/>
-      <c r="AO26" s="1"/>
-      <c r="AP26" s="1"/>
-      <c r="AQ26" s="1"/>
-      <c r="AR26" s="1"/>
+      <c r="AE26" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="AF26" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="AG26" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="AH26" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="AI26" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="AJ26" s="2" t="n">
+        <v>241</v>
+      </c>
+      <c r="AK26" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="AL26" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="AM26" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="AN26" s="2" t="n">
+        <v>269</v>
+      </c>
+      <c r="AO26" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="AP26" s="2" t="n">
+        <v>283</v>
+      </c>
+      <c r="AQ26" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="AR26" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="AS26" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="AT26" s="2" t="n">
+        <v>311</v>
+      </c>
+      <c r="AU26" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="AV26" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="AW26" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="AX26" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="AY26" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="AZ26" s="2" t="n">
+        <v>353</v>
+      </c>
+      <c r="BA26" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="BB26" s="2" t="n">
+        <v>367</v>
+      </c>
+      <c r="BC26" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="BD26" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="BE26" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="BF26" s="1" t="n">
+        <v>395</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
@@ -1674,6 +2080,90 @@
       <c r="AD27" s="1" t="n">
         <v>198</v>
       </c>
+      <c r="AE27" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="AF27" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="AG27" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="AH27" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="AI27" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="AJ27" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="AK27" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="AL27" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="AM27" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="AN27" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="AO27" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="AP27" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="AQ27" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="AR27" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="AS27" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="AT27" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="AU27" s="2" t="n">
+        <v>317</v>
+      </c>
+      <c r="AV27" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="AW27" s="2" t="n">
+        <v>331</v>
+      </c>
+      <c r="AX27" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="AY27" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="AZ27" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="BA27" s="2" t="n">
+        <v>359</v>
+      </c>
+      <c r="BB27" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="BC27" s="2" t="n">
+        <v>373</v>
+      </c>
+      <c r="BD27" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="BE27" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="BF27" s="1" t="n">
+        <v>394</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
@@ -1765,6 +2255,90 @@
       </c>
       <c r="AD28" s="2" t="n">
         <v>197</v>
+      </c>
+      <c r="AE28" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="AF28" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="AG28" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="AH28" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="AI28" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="AJ28" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="AK28" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="AL28" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="AM28" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="AN28" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="AO28" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="AP28" s="2" t="n">
+        <v>281</v>
+      </c>
+      <c r="AQ28" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="AR28" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="AS28" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="AT28" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="AU28" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="AV28" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="AW28" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="AX28" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="AY28" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="AZ28" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="BA28" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="BB28" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="BC28" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="BD28" s="2" t="n">
+        <v>379</v>
+      </c>
+      <c r="BE28" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="BF28" s="1" t="n">
+        <v>393</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
